--- a/Genera/Maestro/NOMIMAS.xlsx
+++ b/Genera/Maestro/NOMIMAS.xlsx
@@ -1666,7 +1666,7 @@
   <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10657,7 +10657,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z112"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>